--- a/projects/validation - single vehicle motion/data/external/15-mph-steer-data.xlsx
+++ b/projects/validation - single vehicle motion/data/external/15-mph-steer-data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/260f1994eb51c2be/pycrash/projects/validation - single vehicle motion/data/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8211EB52-0C4B-4183-AE00-5C851500DC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1BA427BC-86AE-4974-8489-F8B8860BC347}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8211EB52-0C4B-4183-AE00-5C851500DC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F29A9449-2AE7-4FA6-ACCF-6E87ECF8A285}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -532,28 +532,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.3</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.4</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.6</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.8</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.1000000000000001</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>-2.1140462142783208E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.2</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>5.3904248530966363E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.3</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0.74313863770087518</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.4</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1.4544692372712464</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.5</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>2.2324168274018881</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.6</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>3.0374327964500876</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.7</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>3.8584722191873189</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1.8</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>4.6398851923967825</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1.9</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>5.3354873409521879</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>5.9883671620071333</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2.1</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>6.7142073247944625</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2.2000000000000002</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>7.3110046162444275</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2.2999999999999998</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>7.5684629247246491</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2.4</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>7.5956668597171104</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2.5</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>7.4856549027523904</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2.6</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>7.3292469989086939</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2.7</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>7.1680307005521389</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2.8</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>7.0127386312079008</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2.9</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>6.8632437094433643</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>6.7180812675181691</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3.1</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>6.5771338972777826</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3.2</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>6.4413217845968687</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3.3</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>6.3115528645924464</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3.4</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>6.1883372956583562</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>6.0716667078260436</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3.6</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>5.9611197559022262</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3.7</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>5.856146469049694</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3.8</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>5.7562202797306652</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3.9</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>5.6608322101931208</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>5.5696231944674395</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4.0999999999999996</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>5.4822491160490987</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4.2</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>5.3985039024917878</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>4.3</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>5.318077996785382</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4.4000000000000004</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>5.2407874218195438</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>4.5</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>5.1664269940622152</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>5.0948104340943825</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4.7</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>5.0257798717959199</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4.8</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>4.959178868806811</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>4.9000000000000004</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>4.8948631084628014</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>4.8326992748790136</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5.0999999999999996</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>4.772590557002748</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5.2</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>4.7143944161113405</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5.3</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>4.6580303153201479</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5.4</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>4.6034086800922775</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5.5</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>4.5504357044966772</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5.6</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>4.4990331903689302</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5.7</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>4.4491159155657165</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>5.8</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>4.4006034287575009</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>5.9</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>4.3534560217467781</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>6</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>4.3076260493090244</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>6.1</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>4.263004729904174</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>6.2</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>4.2195620335972173</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>6.3</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>4.1772702096533436</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>6.4</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>4.1360541862541202</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>6.5</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>4.0958663603434564</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>6.6</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>4.0566958483533186</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>6.7</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>4.0184596747208952</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>6.8</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>3.9811550728762968</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>6.9</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>3.9447273326563401</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>7</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>3.9091475428836349</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>7.1</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>3.8743879993744668</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>7.2</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>3.8404129326754797</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>7.3</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>3.8071823983218289</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>7.4</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>3.7747108044137745</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>7.5</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>3.7429272599540515</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>7.6</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>3.7118184936773253</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7.7</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>3.6813692194486896</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7.8</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>3.6515527716645035</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7.9</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>3.6223492289731674</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>8</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>3.5937543826843066</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>8.1</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>3.5657115154227332</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>8.1999999999999993</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>3.5382344737820755</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>8.3000000000000007</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>3.5112976801973037</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>8.4</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>3.4848695008900288</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>8.5</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>3.4589569359677013</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>8.6</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>3.4335213055637333</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>8.6999999999999993</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>3.408563274819457</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>8.8000000000000007</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>3.3840524323656358</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>8.9</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>3.3599978083993101</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>9</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>3.3363776328255956</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>9.1</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>3.3131784108286695</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>9.1999999999999993</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>3.290379331295965</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>9.3000000000000007</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>3.2679901193459941</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9.4</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>3.2459755690179755</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>9.5</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>3.2243533725529061</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>9.6</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>3.2030665291178675</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>9.6999999999999993</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>3.1821556335579952</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>9.8000000000000007</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>3.1615938687712926</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>9.9</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>3.1413547069835186</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>10</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>3.121442569443051</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>10.1</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>3.1018607114406382</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>10.199999999999999</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>3.0825763464741813</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>10.3</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>3.0636082901600354</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>10.4</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>3.0449310157883676</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>10.5</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>3.0265346377192537</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>10.6</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>3.0084161832377498</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>10.7</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>2.9905727448213923</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>10.8</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>2.9729949461656782</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>10.9</v>
       </c>
